--- a/A7/foto escolhida/29-09-2023_14-20-56/tratamento7.xlsx
+++ b/A7/foto escolhida/29-09-2023_14-20-56/tratamento7.xlsx
@@ -3,22 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4000E-BACC-4E50-B277-D3C70A3F5264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898EFAE-90B2-4FFE-8BF0-86FD8D2BCE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cru" sheetId="1" r:id="rId1"/>
     <sheet name="Processado" sheetId="3" r:id="rId2"/>
     <sheet name="normalidade" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Cru!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Cru!$B$2:$B$105</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Processado!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Processado!$E$2:$E$200</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Processado!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Processado!$B$2:$B$200</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Processado!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Processado!$B$2:$B$200</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Processado!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Processado!$E$2:$E$200</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -89,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -279,12 +282,21 @@
   <si>
     <t>Estatística descritiva</t>
   </si>
+  <si>
+    <t>Cobrim. S brilho</t>
+  </si>
+  <si>
+    <t>Media S brilho</t>
+  </si>
+  <si>
+    <t>Desv. Pad. S brilho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +347,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -350,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -415,12 +434,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,9 +503,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,6 +515,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,7 +3666,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Processado!$F$10:$F$11</c:f>
+              <c:f>Processado!$G$12:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3644,7 +3681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Processado!$F$2,Processado!$F$2)</c:f>
+              <c:f>(Processado!$G$2,Processado!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3962,6 +3999,1171 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Área de Cobertura</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processado!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobrim. S brilho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Processado!$A$2:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Processado!$F$2:$F$200</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>88.549513765237634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.921892687344354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.376803447629754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.002603601648943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.732184808144083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.709307992202724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.980796235151246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.123929794520549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.195529621204628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.18662716885315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.879961806029186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.954699368536652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.246571715995131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.470604062962465</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.95489138652286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.63541467518067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.309092373359107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.910579757615466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.55920641236996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.438117778087147</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.919046495161666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.433687002652519</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.284085927224908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.774396766908353</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.359110004667812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.711181464958983</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.840017751151052</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.600948131622985</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87.701399688958006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.708476746978306</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.185479296653426</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90.781609195402297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93.905950095969288</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95.075163700082996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.413262535449221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.404212413174989</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.991316931982638</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.369920689317539</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.003611944854256</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87.121549421193237</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.497795738427627</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.78150406504065</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>89.369828134945891</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.125118099608585</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.25609422076144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95.21484375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90.362408598713387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.315024232633277</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.776010318142738</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92.795041749160717</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>93.826861624866851</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.234503293332125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>97.074483646363589</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97.788380940099302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>93.123888559573203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.187530443253777</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94.854481955762509</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96.596996906360829</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>94.092392237678169</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>94.859907276758719</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>89.263939696264273</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91.54182272159801</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95.259841609341578</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93.373845974056323</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>94.403773053639313</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96.6733405205606</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>97.793424627155289</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>94.363452655889148</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>91.315971878403801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97.727565340543322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>91.833704528582032</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91.86464718099387</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97.468776813804936</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92.779232111692849</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95.50320075558821</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>96.441127156687756</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95.436693472975506</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96.025222874537945</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95.685370228029726</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81C0-4C36-88EA-125715BAAF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4005,9 +5207,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4024,20 +5225,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 91,08]</c:v>
                 </c:pt>
@@ -4067,16 +5282,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(97,6; 98,42]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(98,42; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$L$4:$L$13</c:f>
+              <c:f>normalidade!$L$4:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.25</c:v>
                 </c:pt>
@@ -4106,10 +5324,14 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -4131,20 +5353,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 91,08]</c:v>
                 </c:pt>
@@ -4174,16 +5410,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(97,6; 98,42]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(98,42; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$M$4:$M$13</c:f>
+              <c:f>normalidade!$M$4:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5.4257645659573542E-2</c:v>
                 </c:pt>
@@ -4213,10 +5452,14 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12.609651070743766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.584756970502763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -4231,11 +5474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:overlap val="-20"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1539222943"/>
         <c:axId val="1539223359"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1539222943"/>
         <c:scaling>
@@ -4340,12 +5583,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4591,7 +5829,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4629,7 +5867,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Pixels Agregados</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4657,7 +5895,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4695,7 +5933,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDF0065E-0469-4BFC-B593-BB490CDEB64D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5038,6 +6276,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -8648,6 +9926,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9275,13 +11069,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -9353,13 +11147,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -9391,13 +11185,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -9469,13 +11263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -9507,13 +11301,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>81600</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>87360</xdr:rowOff>
@@ -9538,6 +11332,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA22E10-2880-4956-9153-9B809B9D86F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9703,6 +11535,1240 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cru"/>
+      <sheetName val="Processado"/>
+      <sheetName val="normalidade"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>Cobrim. S brilho</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="F2">
+            <v>90.643323148071687</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="F3">
+            <v>91.524673600354063</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="F4">
+            <v>91.064318013093072</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="F5">
+            <v>80.092551784927281</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="F6">
+            <v>81.421031262687777</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="F7">
+            <v>81.459076573083081</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="F8">
+            <v>79.293006831964377</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="F9">
+            <v>84.588807370755845</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="F10">
+            <v>91.853426069036573</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="F11">
+            <v>65.825394568462954</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="F12">
+            <v>70.282951798663447</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="F13">
+            <v>82.184441745838996</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="F14">
+            <v>77.989845231540954</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="F15">
+            <v>94.129486749412948</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="F16">
+            <v>94.700358682948448</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="F17">
+            <v>92.749605956845485</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="F18">
+            <v>93.242150158099861</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="F19">
+            <v>77.404686953480237</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="F20">
+            <v>68.421815021365973</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="F21">
+            <v>87.738518464775453</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="F22">
+            <v>83.835190203753896</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="F23">
+            <v>82.642062097246637</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="F24">
+            <v>89.221211733060073</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="F25">
+            <v>79.089425206948818</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="F26">
+            <v>69.586948321388149</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="F27">
+            <v>88.088160661204952</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="F28">
+            <v>63.883348845454947</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="F29">
+            <v>83.732253181130062</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="F30">
+            <v>91.351411672804375</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="F31">
+            <v>92.007809957696068</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="F32">
+            <v>94.267606132493</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="F33">
+            <v>91.622367001079184</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="F34">
+            <v>69.959657581422803</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="F35">
+            <v>86.593781499573538</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="F36">
+            <v>77.470434956905194</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="F37">
+            <v>81.546537452049265</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="F38">
+            <v>87.209191909600221</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="F39">
+            <v>78.157205240174676</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="F40">
+            <v>74.93385149660989</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="F41">
+            <v>86.681213545382064</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="F42">
+            <v>79.898717634566694</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="F43">
+            <v>88.095062909278198</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="F44">
+            <v>89.250832408435073</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="F45">
+            <v>77.8721745908028</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="F46">
+            <v>77.116380030055097</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="F47">
+            <v>82.974611847804354</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="F48">
+            <v>94.639081222272893</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="F49">
+            <v>85.546210546210546</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="F50">
+            <v>82.852037169406714</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="F51">
+            <v>83.736862592448418</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="F52">
+            <v>85.56849216616358</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="F53">
+            <v>90.36961681926077</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="F54">
+            <v>86.174121405750796</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="F55">
+            <v>83.682658804610028</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="F56">
+            <v>88.017041471175105</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="F57">
+            <v>94.216157543805238</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="F58">
+            <v>87.969563476171402</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="F59">
+            <v>84.642361364798717</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="F60">
+            <v>82.474167951133182</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="F61">
+            <v>75.35370684776457</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="F62">
+            <v>84.583303372402384</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="F63">
+            <v>90.328787278592046</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="F64">
+            <v>91.74508404179376</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="F65">
+            <v>85.742272529386156</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="F66">
+            <v>72.634631317315652</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="F67">
+            <v>76.22239244223158</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="F68">
+            <v>65.683246939450754</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="F69">
+            <v>89.069886291043829</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="F70">
+            <v>69.698859031111667</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="F71">
+            <v>95.115384615384613</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="F72">
+            <v>91.449372260604704</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="F73">
+            <v>90.655283802491923</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="F81" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="F82" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="F86" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="F87" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="F88" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="F99" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="F100" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="F101" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="F102" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="F103" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="F104" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="F105" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="F106" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="F107" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="F108" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="F109" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="F110" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="F111" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="F112" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="F113" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="F114" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="F115" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="F116" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="F117" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="F118" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="F119" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="F120" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="F121" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="F122" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="F123" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="F124" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="F125" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="F126" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="F127" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="F128" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="F129" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="F130" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="F131" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="F132" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="F133" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="F134" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="F135" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="F136" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="F137" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="F138" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="F139" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="F140" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="F141" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="F142" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="F143" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="F144" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="F145" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="F146" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="F147" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="F148" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="F149" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="F150" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="F151" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="F152" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="F153" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="F154" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="F155" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="F156" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="F157" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="F158" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="F159" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="F160" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="F161" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="F162" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="F163" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="F164" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="F165" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="F166" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="F167" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="F168" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="F169" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="F170" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="F171" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="F172" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="F173" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="F174" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="F175" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="F176" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="F177" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="F178" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="F179" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="F180" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="F181" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="F182" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="F183" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="F184" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="F185" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="F186" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="F187" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="F188" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="F189" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="F190" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="F191" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="F192" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="F193" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="F194" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="F195" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="F196" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="F197" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="F198" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="F199" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="F200" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9971,7 +13037,7 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12358,10 +15424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70EAAED-2E1F-4803-8270-B1973955EBA5}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12371,11 +15437,12 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12391,14 +15458,17 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12414,15 +15484,19 @@
       <c r="E2" s="3">
         <v>93.925489658950795</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="31">
+        <f>IF(B2=0,"",100*(C2)/B2)</f>
+        <v>88.549513765237634</v>
+      </c>
+      <c r="G2" s="10">
         <f>AVERAGE(E2:E200)</f>
         <v>96.453933694722565</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12438,15 +15512,19 @@
       <c r="E3" s="3">
         <v>91.721379518526902</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="31">
+        <f t="shared" ref="F3:F66" si="0">IF(B3=0,"",100*(C3)/B3)</f>
+        <v>84.921892687344354</v>
+      </c>
+      <c r="G3" s="10">
         <f>_xlfn.STDEV.S(E2:E200)</f>
         <v>1.6440906557149457</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12462,14 +15540,19 @@
       <c r="E4" s="3">
         <v>98.280869402285902</v>
       </c>
-      <c r="F4" s="11">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="31">
+        <f t="shared" si="0"/>
+        <v>97.376803447629754</v>
+      </c>
+      <c r="G4" s="30">
+        <f>AVERAGE(F2:F200)</f>
+        <v>92.735197545684784</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12485,14 +15568,19 @@
       <c r="E5" s="3">
         <v>94.613799088739398</v>
       </c>
-      <c r="F5" s="11">
-        <v>232</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="31">
+        <f t="shared" si="0"/>
+        <v>82.002603601648943</v>
+      </c>
+      <c r="G5" s="30">
+        <f>_xlfn.STDEV.S(F2:F200)</f>
+        <v>4.0073574539415935</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12508,84 +15596,101 @@
       <c r="E6" s="3">
         <v>97.096058470373194</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>95.732184808144083</v>
+      </c>
+      <c r="G6" s="11">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16416</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15055</v>
+      </c>
+      <c r="D7" s="3">
+        <v>934</v>
+      </c>
+      <c r="E7" s="3">
+        <v>97.398879142300103</v>
+      </c>
+      <c r="F7" s="31">
+        <f t="shared" si="0"/>
+        <v>91.709307992202724</v>
+      </c>
+      <c r="G7" s="11">
+        <v>232</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26349</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24763</v>
+      </c>
+      <c r="D8" s="3">
+        <v>432</v>
+      </c>
+      <c r="E8" s="3">
+        <v>95.620327147140301</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="0"/>
+        <v>93.980796235151246</v>
+      </c>
+      <c r="G8" s="12">
         <f>MIN(E2:E200)</f>
         <v>91.081925055106495</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>16416</v>
-      </c>
-      <c r="C7" s="3">
-        <v>15055</v>
-      </c>
-      <c r="D7" s="3">
-        <v>934</v>
-      </c>
-      <c r="E7" s="3">
-        <v>97.398879142300103</v>
-      </c>
-      <c r="F7" s="12">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>18688</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17403</v>
+      </c>
+      <c r="D9" s="3">
+        <v>564</v>
+      </c>
+      <c r="E9" s="3">
+        <v>96.141909246575295</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>93.123929794520549</v>
+      </c>
+      <c r="G9" s="12">
         <f>MAX(E2:E200)</f>
         <v>98.420272100070903</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>26349</v>
-      </c>
-      <c r="C8" s="3">
-        <v>24763</v>
-      </c>
-      <c r="D8" s="3">
-        <v>432</v>
-      </c>
-      <c r="E8" s="3">
-        <v>95.620327147140301</v>
-      </c>
-      <c r="F8" s="13">
-        <f>100*F3/F2</f>
-        <v>1.7045345821959996</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>18688</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17403</v>
-      </c>
-      <c r="D9" s="3">
-        <v>564</v>
-      </c>
-      <c r="E9" s="3">
-        <v>96.141909246575295</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -12601,14 +15706,19 @@
       <c r="E10" s="3">
         <v>96.686776777766795</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>93.195529621204628</v>
+      </c>
+      <c r="G10" s="13">
+        <f>100*G3/G2</f>
+        <v>1.7045345821959996</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12624,50 +15734,71 @@
       <c r="E11" s="3">
         <v>97.307448159119701</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>93.18662716885315</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>14662</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11712</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2098</v>
+      </c>
+      <c r="E12" s="3">
+        <v>94.189060155503995</v>
+      </c>
+      <c r="F12" s="31">
+        <f t="shared" si="0"/>
+        <v>79.879961806029186</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10927</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9283</v>
+      </c>
+      <c r="D13" s="3">
+        <v>926</v>
+      </c>
+      <c r="E13" s="3">
+        <v>93.4291205271346</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" si="0"/>
+        <v>84.954699368536652</v>
+      </c>
+      <c r="G13" s="11">
         <f>COUNT(A2:A200)</f>
         <v>80</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>14662</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11712</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2098</v>
-      </c>
-      <c r="E12" s="3">
-        <v>94.189060155503995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10927</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9283</v>
-      </c>
-      <c r="D13" s="3">
-        <v>926</v>
-      </c>
-      <c r="E13" s="3">
-        <v>93.4291205271346</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -12683,9 +15814,13 @@
       <c r="E14" s="3">
         <v>95.483666013660098</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="31">
+        <f t="shared" si="0"/>
+        <v>89.246571715995131</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -12701,8 +15836,12 @@
       <c r="E15" s="3">
         <v>97.685994887663099</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="31">
+        <f t="shared" si="0"/>
+        <v>94.470604062962465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -12718,8 +15857,12 @@
       <c r="E16" s="3">
         <v>97.595887304067304</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>94.95489138652286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -12735,8 +15878,12 @@
       <c r="E17" s="3">
         <v>97.503154513822494</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="31">
+        <f t="shared" si="0"/>
+        <v>94.63541467518067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -12752,8 +15899,12 @@
       <c r="E18" s="3">
         <v>93.468631714584802</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="31">
+        <f t="shared" si="0"/>
+        <v>86.309092373359107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -12769,8 +15920,12 @@
       <c r="E19" s="3">
         <v>94.032099574189303</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="31">
+        <f t="shared" si="0"/>
+        <v>80.910579757615466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -12786,8 +15941,12 @@
       <c r="E20" s="3">
         <v>97.436188960263706</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>93.55920641236996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12803,8 +15962,12 @@
       <c r="E21" s="3">
         <v>95.962689683975995</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="31">
+        <f t="shared" si="0"/>
+        <v>91.438117778087147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -12820,8 +15983,12 @@
       <c r="E22" s="3">
         <v>95.474392258673504</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="31">
+        <f t="shared" si="0"/>
+        <v>88.919046495161666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -12837,8 +16004,12 @@
       <c r="E23" s="3">
         <v>95.997536945812797</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="31">
+        <f t="shared" si="0"/>
+        <v>87.433687002652519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -12854,8 +16025,12 @@
       <c r="E24" s="3">
         <v>95.871693701592804</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="31">
+        <f t="shared" si="0"/>
+        <v>92.284085927224908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -12871,8 +16046,12 @@
       <c r="E25" s="3">
         <v>97.462260786877394</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="31">
+        <f t="shared" si="0"/>
+        <v>95.774396766908353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -12888,8 +16067,12 @@
       <c r="E26" s="3">
         <v>97.658316477361097</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="31">
+        <f t="shared" si="0"/>
+        <v>96.359110004667812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -12905,8 +16088,12 @@
       <c r="E27" s="3">
         <v>97.100302201755596</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="31">
+        <f t="shared" si="0"/>
+        <v>92.711181464958983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -12922,8 +16109,12 @@
       <c r="E28" s="3">
         <v>96.682753647306797</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="31">
+        <f t="shared" si="0"/>
+        <v>91.840017751151052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -12939,8 +16130,12 @@
       <c r="E29" s="3">
         <v>98.138594534299997</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="31">
+        <f t="shared" si="0"/>
+        <v>95.600948131622985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -12956,8 +16151,12 @@
       <c r="E30" s="3">
         <v>95.657853810264299</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="31">
+        <f t="shared" si="0"/>
+        <v>87.701399688958006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -12973,8 +16172,12 @@
       <c r="E31" s="3">
         <v>97.014328023693196</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="31">
+        <f t="shared" si="0"/>
+        <v>93.708476746978306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -12990,8 +16193,12 @@
       <c r="E32" s="3">
         <v>98.194999999999993</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="31">
+        <f t="shared" si="0"/>
+        <v>96.204999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -13007,8 +16214,12 @@
       <c r="E33" s="3">
         <v>97.227736812251806</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="31">
+        <f t="shared" si="0"/>
+        <v>96.185479296653426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13024,8 +16235,12 @@
       <c r="E34" s="3">
         <v>93.931034482758605</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="31">
+        <f t="shared" si="0"/>
+        <v>90.781609195402297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -13041,8 +16256,12 @@
       <c r="E35" s="3">
         <v>96.299184261036402</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="31">
+        <f t="shared" si="0"/>
+        <v>93.905950095969288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -13058,8 +16277,12 @@
       <c r="E36" s="3">
         <v>97.740477727566102</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="31">
+        <f t="shared" si="0"/>
+        <v>95.075163700082996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -13075,8 +16298,12 @@
       <c r="E37" s="3">
         <v>93.549749592710995</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="31">
+        <f t="shared" si="0"/>
+        <v>87.413262535449221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -13092,8 +16319,12 @@
       <c r="E38" s="3">
         <v>96.353349764732201</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="31">
+        <f t="shared" si="0"/>
+        <v>92.404212413174989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -13109,8 +16340,12 @@
       <c r="E39" s="3">
         <v>96.591895803183704</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="31">
+        <f t="shared" si="0"/>
+        <v>90.991316931982638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -13126,8 +16361,12 @@
       <c r="E40" s="3">
         <v>96.416332125722107</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="31">
+        <f t="shared" si="0"/>
+        <v>94.369920689317539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -13143,8 +16382,12 @@
       <c r="E41" s="3">
         <v>97.924403520374398</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="31">
+        <f t="shared" si="0"/>
+        <v>97.003611944854256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -13160,8 +16403,12 @@
       <c r="E42" s="3">
         <v>91.206589492430993</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="31">
+        <f t="shared" si="0"/>
+        <v>87.121549421193237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -13177,8 +16424,12 @@
       <c r="E43" s="3">
         <v>91.081925055106495</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="31">
+        <f t="shared" si="0"/>
+        <v>85.497795738427627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -13194,8 +16445,12 @@
       <c r="E44" s="3">
         <v>95.492886178861795</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="31">
+        <f t="shared" si="0"/>
+        <v>89.78150406504065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -13211,8 +16466,12 @@
       <c r="E45" s="3">
         <v>94.546997666030094</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="31">
+        <f t="shared" si="0"/>
+        <v>89.369828134945891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -13228,8 +16487,12 @@
       <c r="E46" s="3">
         <v>98.211634498582796</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="31">
+        <f t="shared" si="0"/>
+        <v>97.125118099608585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -13245,8 +16508,12 @@
       <c r="E47" s="3">
         <v>96.179129005751804</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="31">
+        <f t="shared" si="0"/>
+        <v>90.25609422076144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -13262,8 +16529,12 @@
       <c r="E48" s="3">
         <v>97.749255952380906</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="31">
+        <f t="shared" si="0"/>
+        <v>95.21484375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -13279,8 +16550,12 @@
       <c r="E49" s="3">
         <v>96.228073680425098</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="31">
+        <f t="shared" si="0"/>
+        <v>90.362408598713387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -13296,8 +16571,12 @@
       <c r="E50" s="3">
         <v>96.858732723029902</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="31">
+        <f t="shared" si="0"/>
+        <v>95.315024232633277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -13313,8 +16592,12 @@
       <c r="E51" s="3">
         <v>97.173258813413497</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="31">
+        <f t="shared" si="0"/>
+        <v>95.776010318142738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -13330,8 +16613,12 @@
       <c r="E52" s="3">
         <v>94.473616252044394</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="31">
+        <f t="shared" si="0"/>
+        <v>92.795041749160717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -13347,8 +16634,12 @@
       <c r="E53" s="3">
         <v>96.276750266292197</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="31">
+        <f t="shared" si="0"/>
+        <v>93.826861624866851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -13364,8 +16655,12 @@
       <c r="E54" s="3">
         <v>98.389425245872005</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="31">
+        <f t="shared" si="0"/>
+        <v>97.234503293332125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13381,8 +16676,12 @@
       <c r="E55" s="3">
         <v>98.273945351354499</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="31">
+        <f t="shared" si="0"/>
+        <v>97.074483646363589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13398,8 +16697,12 @@
       <c r="E56" s="3">
         <v>98.420272100070903</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="31">
+        <f t="shared" si="0"/>
+        <v>97.788380940099302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13415,8 +16718,12 @@
       <c r="E57" s="3">
         <v>96.388065599683799</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="31">
+        <f t="shared" si="0"/>
+        <v>93.123888559573203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13432,8 +16739,12 @@
       <c r="E58" s="3">
         <v>98.041889917194297</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="31">
+        <f t="shared" si="0"/>
+        <v>95.187530443253777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13449,8 +16760,12 @@
       <c r="E59" s="3">
         <v>96.810244470314302</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="31">
+        <f t="shared" si="0"/>
+        <v>94.854481955762509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13466,8 +16781,12 @@
       <c r="E60" s="3">
         <v>97.841998038179995</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="31">
+        <f t="shared" si="0"/>
+        <v>96.596996906360829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -13483,8 +16802,12 @@
       <c r="E61" s="3">
         <v>96.664090674909801</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="31">
+        <f t="shared" si="0"/>
+        <v>94.092392237678169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -13500,8 +16823,12 @@
       <c r="E62" s="3">
         <v>97.930524759793002</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="31">
+        <f t="shared" si="0"/>
+        <v>94.859907276758719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -13517,8 +16844,12 @@
       <c r="E63" s="3">
         <v>95.815319809333701</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="31">
+        <f t="shared" si="0"/>
+        <v>89.263939696264273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -13534,8 +16865,12 @@
       <c r="E64" s="3">
         <v>96.6666666666666</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="31">
+        <f t="shared" si="0"/>
+        <v>91.54182272159801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -13551,8 +16886,12 @@
       <c r="E65" s="3">
         <v>97.352448118388295</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="31">
+        <f t="shared" si="0"/>
+        <v>95.259841609341578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -13568,8 +16907,12 @@
       <c r="E66" s="3">
         <v>96.587589108332295</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="31">
+        <f t="shared" si="0"/>
+        <v>93.373845974056323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -13585,8 +16928,12 @@
       <c r="E67" s="3">
         <v>96.621145994650107</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="31">
+        <f t="shared" ref="F67:F130" si="1">IF(B67=0,"",100*(C67)/B67)</f>
+        <v>94.403773053639313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -13602,8 +16949,12 @@
       <c r="E68" s="3">
         <v>97.617947533240894</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="31">
+        <f t="shared" si="1"/>
+        <v>96.6733405205606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -13619,8 +16970,12 @@
       <c r="E69" s="3">
         <v>98.137162499306896</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="31">
+        <f t="shared" si="1"/>
+        <v>97.793424627155289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -13636,8 +16991,12 @@
       <c r="E70" s="3">
         <v>97.676096997690493</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="31">
+        <f t="shared" si="1"/>
+        <v>94.363452655889148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -13653,8 +17012,12 @@
       <c r="E71" s="3">
         <v>96.222398257253104</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="31">
+        <f t="shared" si="1"/>
+        <v>91.315971878403801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -13670,8 +17033,12 @@
       <c r="E72" s="3">
         <v>98.371314535856797</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="31">
+        <f t="shared" si="1"/>
+        <v>97.727565340543322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -13687,8 +17054,12 @@
       <c r="E73" s="3">
         <v>96.618411284335494</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="31">
+        <f t="shared" si="1"/>
+        <v>91.833704528582032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -13704,8 +17075,12 @@
       <c r="E74" s="3">
         <v>95.299123651284106</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="31">
+        <f t="shared" si="1"/>
+        <v>91.86464718099387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -13721,8 +17096,12 @@
       <c r="E75" s="3">
         <v>98.002669463247202</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="31">
+        <f t="shared" si="1"/>
+        <v>97.468776813804936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -13738,8 +17117,12 @@
       <c r="E76" s="3">
         <v>96.545956951716093</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="31">
+        <f t="shared" si="1"/>
+        <v>92.779232111692849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -13755,8 +17138,12 @@
       <c r="E77" s="3">
         <v>97.376429845733995</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="31">
+        <f t="shared" si="1"/>
+        <v>95.50320075558821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -13772,8 +17159,12 @@
       <c r="E78" s="3">
         <v>98.150251500892395</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="31">
+        <f t="shared" si="1"/>
+        <v>96.441127156687756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -13789,8 +17180,12 @@
       <c r="E79" s="3">
         <v>96.872077800635793</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="31">
+        <f t="shared" si="1"/>
+        <v>95.436693472975506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -13806,8 +17201,12 @@
       <c r="E80" s="3">
         <v>97.843009349858605</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="31">
+        <f t="shared" si="1"/>
+        <v>96.025222874537945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -13823,843 +17222,1323 @@
       <c r="E81" s="3">
         <v>97.432744043043797</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="31">
+        <f t="shared" si="1"/>
+        <v>95.685370228029726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="31" t="str">
+        <f t="shared" ref="F131:F194" si="2">IF(B131=0,"",100*(C131)/B131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="31" t="str">
+        <f t="shared" ref="F195:F200" si="3">IF(B195=0,"",100*(C195)/B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
+      <c r="F200" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14671,7 +18550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839320EC-8AE6-4613-BBEF-991D248D30FB}">
   <dimension ref="B2:V15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -14697,29 +18576,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="P2" s="26" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="P2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="U2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="26"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -14770,7 +18649,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15">
-        <f>Processado!F2</f>
+        <f>Processado!G2</f>
         <v>96.453933694722565</v>
       </c>
       <c r="D4" s="15"/>
@@ -14829,7 +18708,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="15">
-        <f>Processado!F3</f>
+        <f>Processado!G3</f>
         <v>1.6440906557149457</v>
       </c>
       <c r="D5" s="15"/>
@@ -14887,7 +18766,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="15">
-        <f>Processado!F6</f>
+        <f>Processado!G8</f>
         <v>91.081925055106495</v>
       </c>
       <c r="D6" s="15"/>
@@ -14946,7 +18825,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="15">
-        <f>Processado!F7</f>
+        <f>Processado!G9</f>
         <v>98.420272100070903</v>
       </c>
       <c r="D7" s="15"/>
@@ -15162,11 +19041,11 @@
         <f t="shared" si="4"/>
         <v>1.5466248266517046</v>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="26" t="str">
         <f>IF(S15&lt;V9,"Há indícios de normalidade","NÃO há indícios de normalidade")</f>
         <v>NÃO há indícios de normalidade</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="26"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -15219,8 +19098,8 @@
         <f t="shared" si="4"/>
         <v>0.71582729544477053</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H12" s="15">
@@ -15263,8 +19142,8 @@
         <f>((Q12-R12)^2)/R12</f>
         <v>0.56309089261706868</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H13" s="15">
